--- a/ExportData/Data User1 Test18-15-04-2021.xlsx
+++ b/ExportData/Data User1 Test18-15-04-2021.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,6 +28,10 @@
     <font>
       <name val="Calibri"/>
       <sz val="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,7 +54,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -58,6 +62,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -423,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:P3"/>
+  <dimension ref="A3:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +532,83 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>1:0:0</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>31.84</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>0.106</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>0.106</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>6.348</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>6.348</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>0.369</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>30.1</t>
+        </is>
+      </c>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>0.083</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="inlineStr">
+        <is>
+          <t>4.980</t>
+        </is>
+      </c>
+      <c r="P4" s="3" t="inlineStr">
+        <is>
+          <t>30.1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
